--- a/Obsidian Vault/知识索引_熟练度.xlsx
+++ b/Obsidian Vault/知识索引_熟练度.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\MyAliyun\wsgo00\github\documents\Obsidian Vault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\myaliyun\wsgo00\github\documents\Obsidian Vault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A152727-FD7E-48BD-8B13-4132D7BC77D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3E121-314D-454A-9195-CABE92DB8765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615E6BE4-644D-47C6-8886-A6A9B58DCF9B}"/>
   </bookViews>
   <sheets>
-    <sheet name="技术岗" sheetId="1" r:id="rId1"/>
-    <sheet name="设计岗" sheetId="3" r:id="rId2"/>
-    <sheet name="管理岗" sheetId="2" r:id="rId3"/>
+    <sheet name="技术类" sheetId="1" r:id="rId1"/>
+    <sheet name="设计类" sheetId="3" r:id="rId2"/>
+    <sheet name="管理类" sheetId="2" r:id="rId3"/>
     <sheet name="字典" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技术岗!$A$2:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技术类!$A$2:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,14 @@
   </si>
   <si>
     <t>Redis 内存数据库设计优化和规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML 统一建模语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计,架构设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,16 +413,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,7 +742,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -746,7 +754,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="10"/>
@@ -981,9 +989,15 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -1072,7 +1086,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,12 +1098,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1302,7 +1316,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1369,18 +1383,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Obsidian Vault/知识索引_熟练度.xlsx
+++ b/Obsidian Vault/知识索引_熟练度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25906"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\myaliyun\wsgo00\github\documents\Obsidian Vault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ytedgevision.sharepoint.com/sites/all/Shared Documents/General/培训资料/知识库&amp;知识图谱/Obsidian Vault/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA3E121-314D-454A-9195-CABE92DB8765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{4CA3E121-314D-454A-9195-CABE92DB8765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10418D89-120A-4E37-85A4-4589A6A1A5BA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615E6BE4-644D-47C6-8886-A6A9B58DCF9B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">技术类!$A$2:$D$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +42,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+  <si>
+    <t>语言类需要主要被考核者所选开发语言方向，主要是针对技术开发岗而非所有的技术岗人员，其中规范性质的内容是必须严格执行的。
+技术方向栏中可以是多选项，以逗号分割。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,21 +57,366 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>技术方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>知识熟练度要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>强制要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C语言开发规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C和C++语言</t>
+  </si>
+  <si>
+    <t>T200</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 语言开发规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go 语言编码建议 - 风格篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 语言代码开发规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Spring Boot 框架课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算,Java语言</t>
+  </si>
+  <si>
+    <t>T300-DEV</t>
+  </si>
+  <si>
+    <t>go-zero 微服务框架课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算,Go语言,微服务</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gRPC 通信协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算,GO语言,微服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T300-DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ 之串口编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,C和C++语言</t>
+  </si>
+  <si>
+    <t>MQTT 协议介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,消息队列,传输协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T100</t>
   </si>
   <si>
+    <t>消息队列介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云平台,分布式计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python 之串口编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,Python语言</t>
+  </si>
+  <si>
+    <t>详细设计文档 - 模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出物模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>T100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T200</t>
-  </si>
-  <si>
-    <t>T200</t>
+    <t>MySQL数据库优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库,MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis 内存数据库设计优化和规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库,内存数据库,Redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UML 统一建模语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计,架构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadoop 分布式存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算,大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go语言订阅和发布MQTT协议数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,消息队列,传输协议,Go语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java语言订阅和发布MQTT协议数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,消息队列,传输协议,Java语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python语言订阅和发布MQTT协议数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边缘计算,物联网,消息队列,传输协议Python语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计类主要是考核产出物以及一些概念性的学习体系，如：风格、色系、操作准则(仅参考)等等，但具体应该以实际产出物是否符合目标群体观感和功能操作等作为考量标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axure PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计,产品工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T300-DES</t>
+  </si>
+  <si>
+    <t>Adobe Photoshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像设计,广告设计,VI设计,产品工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型设计,模块设计,流程设计,产品工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XMindMaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维导图,模块设计,功能设计,产品工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品/项目需求规格说明书-模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理类主要涉及项目管理和产品管理相关知识点，包括不限于：项目管理十大知识领域
+、五大过程组:启动，规划，执行，监控，收尾等内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP启动过程组知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T400-MGR</t>
+  </si>
+  <si>
+    <t>PMP规划过程组知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP执行过程组知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP监控过程组知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP收尾过程组知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP整合管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP范围管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP进度管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP成本管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP资源管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP沟通管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP风险管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP采购管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMP相关方管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRUM理论基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解基本概念、常识、功能、历史等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟练操作相关产品和组件并应用到研发和测试工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通相关产品或组件的一些应用和优化技巧并应用到研发、架构和测试工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T300-OPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以安装部署维护相关产品或组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T300-DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通相关UI/UE/产品设计相关工具和软件使用及应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T400-MGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉了解并运用到相关项目和产品管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -71,231 +424,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解基本概念、常识、功能、历史等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟练操作相关产品和组件并应用到研发和测试工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以安装部署维护相关产品或组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改造相关开源产品或组件形成自己的一套产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T300-DEV</t>
-  </si>
-  <si>
-    <t>T300-DEV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T300-OPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C和C++ 语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高熟练度包含低熟练度，考核时需要考虑同时挑选多种级别的知识点，比如考核T300-DEV熟练度的岗位时，也可以挑选T100-200的熟练度知识点，而反过来最好不要越级
 语言规范类型的只需要考虑是否为技术开发岗以及他们的代码语言方向，规范类必须严格执行！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 语言开发规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C语言开发规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go 语言编码建议 - 风格篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 语言代码开发规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式计算, Java 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语言类需要主要被考核者所选开发语言方向，主要是针对技术开发岗而非所有的技术岗人员，其中规范性质的内容是必须严格执行的。
-技术方向栏中可以是多选项，以逗号分割。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go-zero 微服务框架课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gRPC 通信协议简述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式计算,GO语言,微服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分布式计算,Go 语言,微服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++ 之串口编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘计算,物联网,C和C++ 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQTT 协议介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘计算,物联网,消息队列,传输协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息队列介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云平台,分布式计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 之串口编程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边缘计算,物联网,Python 语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Spring Boot 框架课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axure PR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T300-DES</t>
-  </si>
-  <si>
-    <t>T300-DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adobe Photoshop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像设计,广告设计,VI设计,产品工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型设计,产品工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型设计,模块设计,流程设计,产品工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XMindMaster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思维导图,模块设计,功能设计,产品工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通相关UI/UE/产品设计相关工具和软件使用及应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计类主要是考核产出物以及一些概念性的学习体系，如：风格、色系、操作准则(仅参考)等等，但具体应该以实际产出物是否符合目标群体观感和功能操作等作为考量标准。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品/项目需求规格说明书-模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出物模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细设计文档 - 模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通相关产品或组件的一些应用和优化技巧并应用到研发、架构和测试工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系型数据库基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL数据库优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库,MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库,内存数据库,Redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis 内存数据库设计优化和规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UML 统一建模语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设计,架构设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,11 +547,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -427,7 +564,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +580,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,330 +876,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CDE596-C6CA-469C-878B-0F221B2C8538}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>35</v>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
+      <c r="B14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
+      <c r="B15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
+      <c r="B16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
+      <c r="B17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>64</v>
+      <c r="B18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D18" xr:uid="{38CDE596-C6CA-469C-878B-0F221B2C8538}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,7 +1311,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{56B4A347-4CB8-4DD0-9EBC-503BD6E9161A}">
           <x14:formula1>
-            <xm:f>字典!$A$2:$A$7</xm:f>
+            <xm:f>字典!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D28</xm:sqref>
         </x14:dataValidation>
@@ -1086,10 +1326,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
@@ -1097,183 +1337,183 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="51" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
+      <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
+      <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
+      <c r="B6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
+      <c r="B7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
@@ -1288,7 +1528,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2C431D2-5E68-408B-8C92-332F88A86F75}">
           <x14:formula1>
-            <xm:f>字典!$A$2:$A$7</xm:f>
+            <xm:f>字典!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D18</xm:sqref>
         </x14:dataValidation>
@@ -1300,107 +1540,726 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5365F7C-9467-4EA9-A3BC-1A1616A553CE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DACB075B-FFE8-4F00-AE1F-4E9B82D72ED4}">
+          <x14:formula1>
+            <xm:f>字典!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216251AE-12DC-4736-BA97-A19179B781DD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3238edf6-e147-44ad-80fc-213a2c4fa8df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F9FD88C27668645B25108383CB63301" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5acc1ba54d7eb08313688079c9906ac5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" xmlns:ns3="3238edf6-e147-44ad-80fc-213a2c4fa8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1656a885372093afd59962d86009cf5e" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8"/>
+    <xsd:import namespace="3238edf6-e147-44ad-80fc-213a2c4fa8df"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3c344740-9ff2-4568-baf5-d16d501544a1}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3238edf6-e147-44ad-80fc-213a2c4fa8df" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="be40aeaf-a5aa-4475-b43d-8a89c651f77f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D17D0878-265E-4A20-AF52-1BEFB8078B71}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C8AF1F-9AE1-465D-92F2-1D5030FB1EC8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F7233DB-2B8A-4FCD-AA5E-F069B56E3F62}"/>
 </file>
--- a/Obsidian Vault/知识索引_熟练度.xlsx
+++ b/Obsidian Vault/知识索引_熟练度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ytedgevision.sharepoint.com/sites/all/Shared Documents/General/培训资料/知识库&amp;知识图谱/Obsidian Vault/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{4CA3E121-314D-454A-9195-CABE92DB8765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10418D89-120A-4E37-85A4-4589A6A1A5BA}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{4CA3E121-314D-454A-9195-CABE92DB8765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADB675A-09C8-4DDA-A837-4B4B863B50E1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{615E6BE4-644D-47C6-8886-A6A9B58DCF9B}"/>
   </bookViews>
@@ -29,12 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -115,9 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分布式计算,Java语言</t>
-  </si>
-  <si>
     <t>T300-DEV</t>
   </si>
   <si>
@@ -430,6 +424,10 @@
   <si>
     <t>高熟练度包含低熟练度，考核时需要考虑同时挑选多种级别的知识点，比如考核T300-DEV熟练度的岗位时，也可以挑选T100-200的熟练度知识点，而反过来最好不要越级
 语言规范类型的只需要考虑是否为技术开发岗以及他们的代码语言方向，规范类必须严格执行！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式计算,Java语言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,7 +562,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,7 +578,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -879,10 +877,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.25" bestFit="1" customWidth="1"/>
@@ -891,7 +889,7 @@
     <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="58.5" customHeight="1">
+    <row r="1" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -900,7 +898,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -917,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -934,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -951,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -968,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -985,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -993,58 +991,58 @@
         <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>16</v>
@@ -1053,49 +1051,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -1104,195 +1102,197 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="10"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="10"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="10"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="10"/>
@@ -1329,7 +1329,7 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
@@ -1337,15 +1337,15 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" customHeight="1">
+    <row r="1" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1359,77 +1359,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1437,7 +1437,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1493,7 +1493,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1546,7 +1546,7 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
@@ -1554,15 +1554,15 @@
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="57.75" customHeight="1">
+    <row r="1" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1570,297 +1570,297 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1895,88 +1895,88 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.5" style="6" customWidth="1"/>
     <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30.75" customHeight="1">
+    <row r="1" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1">
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" ht="26.25" customHeight="1">
+    <row r="10" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" ht="24.75" customHeight="1">
+    <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
     </row>
@@ -1990,26 +1990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3238edf6-e147-44ad-80fc-213a2c4fa8df">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F9FD88C27668645B25108383CB63301" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5acc1ba54d7eb08313688079c9906ac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" xmlns:ns3="3238edf6-e147-44ad-80fc-213a2c4fa8df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1656a885372093afd59962d86009cf5e" ns2:_="" ns3:_="">
     <xsd:import namespace="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8"/>
@@ -2252,14 +2232,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3238edf6-e147-44ad-80fc-213a2c4fa8df">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D17D0878-265E-4A20-AF52-1BEFB8078B71}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F7233DB-2B8A-4FCD-AA5E-F069B56E3F62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8"/>
+    <ds:schemaRef ds:uri="3238edf6-e147-44ad-80fc-213a2c4fa8df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C8AF1F-9AE1-465D-92F2-1D5030FB1EC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C8AF1F-9AE1-465D-92F2-1D5030FB1EC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d2cc0ff2-18df-4b7d-9a79-fe7f8bf99ad8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3238edf6-e147-44ad-80fc-213a2c4fa8df"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F7233DB-2B8A-4FCD-AA5E-F069B56E3F62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D17D0878-265E-4A20-AF52-1BEFB8078B71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>